--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2425828.924521682</v>
+        <v>2507512.96705998</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9532981.274966097</v>
+        <v>9532981.274966095</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.3626115273233</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>182.2182241459378</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G2" t="n">
-        <v>276.1565137023554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.95938139570241</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>140.7977194677359</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6773952840984226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464224</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>136.1227192823009</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0396308464224</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280909</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>316.9781183410242</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,7 +992,7 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>198.0788672539743</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>35.82638007613564</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>115.3392102682845</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.1649833439812</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>334.6486186276852</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>325.8478922769012</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>88.18421182873882</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>94.99663482462131</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>109.0847947020405</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>113.6438893187819</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1664,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>98.54775828880942</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>55.51369213499295</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.78443521903667</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>232.148403473552</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>177.255689600972</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>165.931777001085</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4820219577564</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>60.34938150136615</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>98.84611363813316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>138.975941563895</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.0525461561584</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>103.2872317757224</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051997</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>143.5989393554754</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.2554561330487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>108.664889157531</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>251.3839891056506</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.8153841422948</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>200.4841756437339</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.7297790606525</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.0256963802046</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>119.2492922883131</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>53.93028217673977</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.9839952821146</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="C2" t="n">
-        <v>307.9839952821146</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="D2" t="n">
-        <v>307.9839952821146</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="E2" t="n">
-        <v>307.9839952821146</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="F2" t="n">
-        <v>301.0384945329111</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="V2" t="n">
-        <v>825.6800813726991</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="W2" t="n">
-        <v>825.6800813726991</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="X2" t="n">
-        <v>825.6800813726991</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.7341079359765</v>
+        <v>500.4124063240801</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>668.6471436786155</v>
+        <v>284.225426359828</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1941143974885</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D3" t="n">
-        <v>494.1941143974885</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E3" t="n">
-        <v>334.956659392033</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F3" t="n">
-        <v>334.956659392033</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>196.3019236205792</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
-        <v>83.66765381912016</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L3" t="n">
-        <v>291.3393440954744</v>
+        <v>94.45522409818579</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>367.8501726635177</v>
       </c>
       <c r="N3" t="n">
-        <v>838.129241226138</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4431,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="U3" t="n">
-        <v>876.4074424435694</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="V3" t="n">
-        <v>876.4074424435694</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="W3" t="n">
-        <v>876.4074424435694</v>
+        <v>634.2968452196395</v>
       </c>
       <c r="X3" t="n">
-        <v>876.4074424435694</v>
+        <v>426.4453450141067</v>
       </c>
       <c r="Y3" t="n">
-        <v>668.6471436786155</v>
+        <v>284.225426359828</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="C4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="D4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="E4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="F4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.77675875689391</v>
+        <v>22.776758756894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>558.0384066358287</v>
+        <v>944.7189833787909</v>
       </c>
       <c r="C5" t="n">
-        <v>558.0384066358287</v>
+        <v>944.7189833787909</v>
       </c>
       <c r="D5" t="n">
-        <v>558.0384066358287</v>
+        <v>944.7189833787909</v>
       </c>
       <c r="E5" t="n">
-        <v>420.5407103910802</v>
+        <v>944.7189833787909</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550205</v>
+        <v>937.7734826295874</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771379</v>
+        <v>561.9758757140094</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771379</v>
+        <v>223.9609786779067</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380414</v>
+        <v>57.643917353804</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456881</v>
+        <v>220.174733845688</v>
       </c>
       <c r="L5" t="n">
         <v>474.0852112039979</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494165</v>
+        <v>773.2160860494164</v>
       </c>
       <c r="N5" t="n">
         <v>1062.555213635722</v>
@@ -4601,16 +4603,16 @@
         <v>1264.898900894977</v>
       </c>
       <c r="V5" t="n">
-        <v>933.8360135514068</v>
+        <v>1264.898900894977</v>
       </c>
       <c r="W5" t="n">
-        <v>933.8360135514068</v>
+        <v>1264.898900894977</v>
       </c>
       <c r="X5" t="n">
-        <v>933.8360135514068</v>
+        <v>944.7189833787909</v>
       </c>
       <c r="Y5" t="n">
-        <v>933.8360135514068</v>
+        <v>944.7189833787909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761.7657908429311</v>
+        <v>650.8634702918654</v>
       </c>
       <c r="C6" t="n">
-        <v>587.3127615618041</v>
+        <v>476.4104410107383</v>
       </c>
       <c r="D6" t="n">
-        <v>438.3783519005529</v>
+        <v>327.4760313494871</v>
       </c>
       <c r="E6" t="n">
-        <v>279.1408968950974</v>
+        <v>168.2385763440316</v>
       </c>
       <c r="F6" t="n">
-        <v>279.1408968950974</v>
+        <v>168.2385763440316</v>
       </c>
       <c r="G6" t="n">
-        <v>140.6654910187796</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H6" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782857</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361415</v>
+        <v>195.5446164760267</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822778</v>
+        <v>479.8626256221629</v>
       </c>
       <c r="M6" t="n">
-        <v>871.0940623202359</v>
+        <v>848.181860160121</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358694001</v>
+        <v>1216.501094698079</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241719</v>
+        <v>1488.158523385689</v>
       </c>
       <c r="P6" t="n">
         <v>1488.158523385689</v>
@@ -4674,22 +4676,22 @@
         <v>1488.158523385689</v>
       </c>
       <c r="T6" t="n">
-        <v>1488.158523385689</v>
+        <v>1287.001448736737</v>
       </c>
       <c r="U6" t="n">
-        <v>1259.951709039254</v>
+        <v>1058.794634390302</v>
       </c>
       <c r="V6" t="n">
-        <v>1259.951709039254</v>
+        <v>858.7149704973982</v>
       </c>
       <c r="W6" t="n">
-        <v>1005.714352311052</v>
+        <v>858.7149704973982</v>
       </c>
       <c r="X6" t="n">
-        <v>969.5260896078851</v>
+        <v>650.8634702918654</v>
       </c>
       <c r="Y6" t="n">
-        <v>761.7657908429311</v>
+        <v>650.8634702918654</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="C7" t="n">
-        <v>315.2036061918678</v>
+        <v>146.2674232639608</v>
       </c>
       <c r="D7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="E7" t="n">
-        <v>315.2036061918678</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="F7" t="n">
-        <v>168.3136586939575</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771379</v>
+        <v>29.76317046771378</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888164</v>
+        <v>32.09990175888161</v>
       </c>
       <c r="L7" t="n">
-        <v>90.6165479061128</v>
+        <v>90.61654790611274</v>
       </c>
       <c r="M7" t="n">
-        <v>162.703269723669</v>
+        <v>162.7032697236689</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400023</v>
+        <v>238.5105468400022</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057949</v>
+        <v>292.5145415057947</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
       <c r="Y7" t="n">
-        <v>315.2036061918678</v>
+        <v>315.2036061918677</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.344242153658</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.344242153658</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1272.344242153658</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>886.5559895554136</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648867</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>279.3468541648867</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323015</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>404.8646000824888</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5133,13 +5135,13 @@
         <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.520392187814</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>357.520392187814</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>207.4037527754782</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>207.4037527754782</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>207.4037527754782</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>207.4037527754782</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>207.4037527754782</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="X13" t="n">
-        <v>357.520392187814</v>
+        <v>1094.995824378752</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.520392187814</v>
+        <v>874.2032452352215</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5363,13 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M15" t="n">
-        <v>1564.731711769082</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>864.5925516340694</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>864.5925516340694</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>864.5925516340694</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>636.6030007360521</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5546,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.8631874464246</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185177</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185177</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5753,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2499.085913569257</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>2648.155597771317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>3262.052667528205</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M21" t="n">
-        <v>3569.372800808167</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N21" t="n">
-        <v>3899.2354284722</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>1119.950109361362</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.950109361362</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="X22" t="n">
-        <v>891.9605584633442</v>
+        <v>931.1046727766346</v>
       </c>
       <c r="Y22" t="n">
-        <v>891.9605584633442</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>231.9043177021524</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>380.9740019042123</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>627.7391298106763</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1396.107276203138</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3924.337302507102</v>
+        <v>3989.585195922475</v>
       </c>
       <c r="C25" t="n">
-        <v>3924.337302507102</v>
+        <v>3820.649012994568</v>
       </c>
       <c r="D25" t="n">
-        <v>3774.220663094766</v>
+        <v>3670.532373582233</v>
       </c>
       <c r="E25" t="n">
-        <v>3774.220663094766</v>
+        <v>3670.532373582233</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596856</v>
+        <v>3670.532373582233</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916677</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494735</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494735</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.945405494735</v>
+        <v>4171.233660752715</v>
       </c>
       <c r="Y25" t="n">
-        <v>4036.945405494735</v>
+        <v>4171.233660752715</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,16 +6229,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>3094.823850208049</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>3899.2354284722</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>515.3536117832385</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="C28" t="n">
-        <v>515.3536117832385</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="D28" t="n">
-        <v>365.2369723709028</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="E28" t="n">
-        <v>365.2369723709028</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>964.135741824786</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V28" t="n">
-        <v>964.135741824786</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W28" t="n">
-        <v>964.135741824786</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="X28" t="n">
-        <v>736.1461909267687</v>
+        <v>4176.661707068534</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.3536117832385</v>
+        <v>3955.869127925004</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6543,25 +6545,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349.4607221898733</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="C31" t="n">
-        <v>349.4607221898733</v>
+        <v>3885.383030364966</v>
       </c>
       <c r="D31" t="n">
-        <v>349.4607221898733</v>
+        <v>3885.383030364966</v>
       </c>
       <c r="E31" t="n">
-        <v>201.5476286074802</v>
+        <v>3885.383030364966</v>
       </c>
       <c r="F31" t="n">
-        <v>201.5476286074802</v>
+        <v>3738.865306974907</v>
       </c>
       <c r="G31" t="n">
-        <v>201.5476286074802</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H31" t="n">
-        <v>201.5476286074802</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>1075.21084526296</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V31" t="n">
-        <v>820.5263570570736</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="W31" t="n">
-        <v>531.109187020113</v>
+        <v>4282.30876419089</v>
       </c>
       <c r="X31" t="n">
-        <v>531.109187020113</v>
+        <v>4054.319213292873</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.109187020113</v>
+        <v>4054.319213292873</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6679,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6725,19 +6727,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6783,7 +6785,7 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1099.417155020476</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
         <v>1406.737288300438</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705745</v>
+        <v>3774.981524342494</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705745</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705745</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705745</v>
+        <v>3606.045341414587</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.311772267568</v>
+        <v>4002.971075240511</v>
       </c>
       <c r="X34" t="n">
-        <v>816.3222213695503</v>
+        <v>3774.981524342494</v>
       </c>
       <c r="Y34" t="n">
-        <v>708.9934778008143</v>
+        <v>3774.981524342494</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -7020,16 +7022,16 @@
         <v>2525.058920465858</v>
       </c>
       <c r="L36" t="n">
-        <v>3138.955990222747</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M36" t="n">
-        <v>3446.276123502708</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N36" t="n">
-        <v>3776.138751166741</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821322</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P36" t="n">
         <v>4773.721670557069</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>675.7175987609741</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C37" t="n">
-        <v>506.7814158330672</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1078.158642734744</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1078.158642734744</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>1078.158642734744</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.158642734744</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X37" t="n">
-        <v>1078.158642734744</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y37" t="n">
-        <v>857.3660635912138</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1841.189502980821</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>545.8631874464246</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C40" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D40" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E40" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>898.7925182488384</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>898.7925182488384</v>
+        <v>783.4929482339625</v>
       </c>
       <c r="X40" t="n">
-        <v>898.7925182488384</v>
+        <v>783.4929482339625</v>
       </c>
       <c r="Y40" t="n">
-        <v>677.9999391053083</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7436,25 +7438,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>921.5583256030199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.3977182706318</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C43" t="n">
-        <v>531.3977182706318</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D43" t="n">
-        <v>381.281078858296</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
         <v>265.3924131404652</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W43" t="n">
-        <v>531.3977182706318</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X43" t="n">
-        <v>531.3977182706318</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.3977182706318</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7652,7 +7654,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7725,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>943.0172707642139</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1711.385417156675</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>449.7218569567721</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C46" t="n">
-        <v>449.7218569567721</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D46" t="n">
-        <v>299.6052175444363</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E46" t="n">
-        <v>151.6921239620432</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F46" t="n">
-        <v>151.6921239620432</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G46" t="n">
-        <v>151.6921239620432</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>151.6921239620432</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983195</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X46" t="n">
-        <v>670.5144361003022</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y46" t="n">
-        <v>449.7218569567721</v>
+        <v>795.449652310468</v>
       </c>
     </row>
   </sheetData>
@@ -8055,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>249.0068850502525</v>
+        <v>195.2920992522434</v>
       </c>
       <c r="M3" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948384</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,13 +8306,13 @@
         <v>450.1033532835735</v>
       </c>
       <c r="N6" t="n">
-        <v>144.669360756345</v>
+        <v>437.615280947046</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>356.8345892921747</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>85.68821697936151</v>
       </c>
       <c r="Q6" t="n">
         <v>107.7037345247341</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451769</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>158.8724419039327</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>113.602692129454</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>94.13752431970602</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.83804904622798</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>403.7628319612151</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O36" t="n">
-        <v>199.7396287231149</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.9802687929764</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>80.50021372615237</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>22.04402060665552</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>202.5230052237939</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.334450762231512</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>138.4937540050461</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>187.6895941097679</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>163.0709612171019</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.0475449629006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,10 +23949,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>54.37459486303896</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>74.881953722856</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>120.591221335506</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.34995822418091</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>106.1441869620114</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>46.57493438479808</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>86.73371382514216</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.3685018667728173</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>7.132013688549577</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>142.9240589811156</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.3291972190461</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>112.8826719008582</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>35.13900923094045</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.01659603964248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>86.03882269285711</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25789,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>31.70418358591668</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>90.68395900883252</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>60.58268789362417</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>56.48896328753221</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,10 +26082,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>812409.232246554</v>
+        <v>812409.2322465538</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812409.232246554</v>
+        <v>812409.2322465539</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812409.2322465538</v>
+        <v>812409.2322465539</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448188</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448192</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934484</v>
@@ -26335,25 +26337,25 @@
         <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934483</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703841</v>
+        <v>106137.1517703839</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252107</v>
+        <v>316711.9424252105</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113901</v>
+        <v>72254.6948711391</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313422</v>
+        <v>24677.24609313418</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817135</v>
+        <v>76496.15793817141</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>295391.3642791485</v>
+        <v>295391.3642791486</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
@@ -26427,7 +26429,7 @@
         <v>50690.35944859718</v>
       </c>
       <c r="F4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="G4" t="n">
         <v>50690.35944859717</v>
@@ -26436,7 +26438,7 @@
         <v>50690.35944859717</v>
       </c>
       <c r="I4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="J4" t="n">
         <v>50690.35944859717</v>
@@ -26445,7 +26447,7 @@
         <v>50690.35944859717</v>
       </c>
       <c r="L4" t="n">
-        <v>50690.3594485971</v>
+        <v>50690.35944859718</v>
       </c>
       <c r="M4" t="n">
         <v>50690.35944859717</v>
@@ -26454,10 +26456,10 @@
         <v>50690.35944859717</v>
       </c>
       <c r="O4" t="n">
+        <v>50690.35944859718</v>
+      </c>
+      <c r="P4" t="n">
         <v>50690.35944859717</v>
-      </c>
-      <c r="P4" t="n">
-        <v>50690.35944859718</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485716</v>
+        <v>58810.42201485715</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133513.026483432</v>
+        <v>133513.0264834317</v>
       </c>
       <c r="C6" t="n">
-        <v>175968.4335804294</v>
+        <v>175968.4335804291</v>
       </c>
       <c r="D6" t="n">
-        <v>35671.84522846795</v>
+        <v>35671.84522846824</v>
       </c>
       <c r="E6" t="n">
-        <v>-61742.67928076151</v>
+        <v>-61742.67928076143</v>
       </c>
       <c r="F6" t="n">
         <v>463417.3571961349</v>
       </c>
       <c r="G6" t="n">
-        <v>463417.3571961347</v>
+        <v>463417.3571961349</v>
       </c>
       <c r="H6" t="n">
         <v>463417.3571961346</v>
@@ -26543,25 +26545,25 @@
         <v>463417.3571961347</v>
       </c>
       <c r="J6" t="n">
-        <v>391162.6623249955</v>
+        <v>391162.6623249956</v>
       </c>
       <c r="K6" t="n">
         <v>438740.1111030005</v>
       </c>
       <c r="L6" t="n">
-        <v>386921.1992579636</v>
+        <v>386921.1992579631</v>
       </c>
       <c r="M6" t="n">
-        <v>328616.3419622977</v>
+        <v>328616.3419622978</v>
       </c>
       <c r="N6" t="n">
-        <v>463417.3571961346</v>
+        <v>463417.3571961347</v>
       </c>
       <c r="O6" t="n">
-        <v>463417.3571961345</v>
+        <v>463417.3571961347</v>
       </c>
       <c r="P6" t="n">
-        <v>463417.3571961349</v>
+        <v>463417.3571961347</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593892</v>
+        <v>117.5602045593891</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464224</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026395</v>
+        <v>82.53894384026381</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576974</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406694</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081332</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023551</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406694</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="L4" t="n">
         <v>302.2476419081335</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406694</v>
+        <v>95.88311714406679</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081332</v>
+        <v>302.2476419081333</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.3712301361573</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>183.0546676250698</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>130.719532039356</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>51.59574476777948</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>25.843695826985</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>64.88497630956843</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>144.7436527388327</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27561,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.25485536161359</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>245.8076507899608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>34.83641489528907</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.79050283128811</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>52.75298233744479</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281879</v>
+        <v>80.69052336281881</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129676</v>
+        <v>84.45800155129677</v>
       </c>
       <c r="S6" t="n">
         <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>34.72171989545097</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>169.9466051273419</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>33.27626274992787</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61400220297696</v>
+        <v>167.7789855469582</v>
       </c>
       <c r="H7" t="n">
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504966</v>
+        <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358474</v>
+        <v>78.37121764358476</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322661</v>
+        <v>68.41045236322663</v>
       </c>
       <c r="R7" t="n">
         <v>167.761378725518</v>
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>72.22742711402623</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>60.39004637915241</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>67.98667701305632</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>130.7130205644158</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.47260383742468</v>
+        <v>0.4726038374246797</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025506</v>
+        <v>4.840054050025501</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231499</v>
+        <v>18.22005944231498</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662297</v>
+        <v>40.11165994662294</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480969</v>
+        <v>60.11698038480964</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439525</v>
+        <v>74.5804300743952</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819641</v>
+        <v>82.98509856819634</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127929</v>
+        <v>84.32788422127922</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288762</v>
+        <v>79.62842981288756</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646582</v>
+        <v>67.96102257646577</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869445</v>
+        <v>51.03589764869441</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262808</v>
+        <v>29.68720080262806</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531491</v>
+        <v>10.7694599453149</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326538</v>
+        <v>2.068823298326536</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0378083069939744</v>
+        <v>0.03780830699397436</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560448</v>
+        <v>0.2528653456560446</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941275</v>
+        <v>2.442146890941273</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596281</v>
+        <v>8.706109488596272</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182834</v>
+        <v>23.89022987182832</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078334</v>
+        <v>40.83220803078331</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483552</v>
+        <v>54.90394270483548</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486713</v>
+        <v>64.07031148486708</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270966</v>
+        <v>65.7660619827096</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106782</v>
+        <v>60.16309827106777</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496877</v>
+        <v>48.28619043496873</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128741</v>
+        <v>32.27803956128738</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134637</v>
+        <v>15.69983260134635</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707671</v>
+        <v>4.696862889707667</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359233</v>
+        <v>1.019224792359232</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368716</v>
+        <v>0.01663587800368715</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.211993811500538</v>
+        <v>0.2119938115005378</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886602</v>
+        <v>1.884817705886601</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761635</v>
+        <v>6.37523207676163</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308803</v>
+        <v>14.98796247308802</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342613</v>
+        <v>24.62982646342611</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072544</v>
+        <v>31.51769812072541</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094342</v>
+        <v>33.23099356094339</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898689</v>
+        <v>32.44083480898686</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736696</v>
+        <v>29.96436164736694</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275596</v>
+        <v>25.63968789275594</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846777</v>
+        <v>17.75159088846776</v>
       </c>
       <c r="R7" t="n">
-        <v>9.53201265165146</v>
+        <v>9.532012651651451</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513919</v>
+        <v>3.694473969513916</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477529</v>
+        <v>0.9057917400477521</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912027</v>
+        <v>0.01156329880912026</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>126.808425193966</v>
+        <v>73.09363939595693</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201045</v>
+        <v>28.16237059201043</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109939</v>
+        <v>164.1725419109938</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548585</v>
+        <v>256.4752296548584</v>
       </c>
       <c r="M5" t="n">
         <v>302.1523988337561</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366726</v>
+        <v>292.2617450366724</v>
       </c>
       <c r="O5" t="n">
         <v>230.3303996539462</v>
@@ -34954,7 +34956,7 @@
         <v>158.5267349926789</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414965</v>
+        <v>41.0451984341496</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557049</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>167.4560060690029</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284205</v>
+        <v>287.1899082284204</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464224</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="N6" t="n">
-        <v>79.09371065572137</v>
+        <v>372.0396308464223</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033529</v>
+        <v>274.401443118798</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605757</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543282</v>
+        <v>2.360334637543261</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104158</v>
+        <v>59.10772338104155</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278401</v>
+        <v>72.81487052278398</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821548</v>
+        <v>76.57300718821546</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140663</v>
+        <v>54.54948956140661</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764945</v>
+        <v>22.91824715764943</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355135</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35428,7 +35430,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
         <v>59.8253897034981</v>
@@ -35501,16 +35503,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642235</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,7 +35658,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35729,16 +35731,16 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>492.0670153019457</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -35984,7 +35986,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>166.2502570412287</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.0477032746127</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>326.2624260966943</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36838,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>736.957405359228</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,10 +36931,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37324,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O36" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507413</v>
@@ -37555,7 +37557,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>253.9933015780506</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>390.9245907766187</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -38020,7 +38022,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38035,7 +38037,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
         <v>59.8253897034981</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>271.3017255626798</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004662</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>484.886707464902</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
